--- a/target/classes/universityInfo.xlsx
+++ b/target/classes/universityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\SF_Homework\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3AE3C-D26B-45C9-A824-D424DEDD37AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B231ACA-6042-4EF1-B228-7980CAB0ED04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="3525" windowWidth="21600" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="4695" windowWidth="21600" windowHeight="12615" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Студенты" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>id университета</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>JURISPRUDENCE</t>
+  </si>
+  <si>
+    <t>MEDICINE</t>
   </si>
 </sst>
 </file>
@@ -748,7 +757,6 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -766,6 +774,7 @@
       <c r="E2" t="s">
         <v>40</v>
       </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -798,7 +807,7 @@
         <v>1960</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,7 +824,7 @@
         <v>1995</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +841,7 @@
         <v>1936</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,7 +858,7 @@
         <v>2003</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,12 +875,12 @@
         <v>1989</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
